--- a/natmiOut/OldD7/LR-pairs_lrc2p/Fn1-Itga2.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Fn1-Itga2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>16.412314546899</v>
+        <v>19.95578266666667</v>
       </c>
       <c r="H2">
-        <v>16.412314546899</v>
+        <v>59.867348</v>
       </c>
       <c r="I2">
-        <v>0.009751784795650554</v>
+        <v>0.0117373419656925</v>
       </c>
       <c r="J2">
-        <v>0.009751784795650554</v>
+        <v>0.0117373419656925</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.29252836627688</v>
+        <v>1.740822</v>
       </c>
       <c r="N2">
-        <v>1.29252836627688</v>
+        <v>5.222466</v>
       </c>
       <c r="O2">
-        <v>0.4633521751997691</v>
+        <v>0.4863878955914668</v>
       </c>
       <c r="P2">
-        <v>0.4633521751997691</v>
+        <v>0.4863878955914669</v>
       </c>
       <c r="Q2">
-        <v>21.21338210812564</v>
+        <v>34.739465493352</v>
       </c>
       <c r="R2">
-        <v>21.21338210812564</v>
+        <v>312.655189440168</v>
       </c>
       <c r="S2">
-        <v>0.00451851069714472</v>
+        <v>0.005708901058530584</v>
       </c>
       <c r="T2">
-        <v>0.00451851069714472</v>
+        <v>0.005708901058530585</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>16.412314546899</v>
+        <v>19.95578266666667</v>
       </c>
       <c r="H3">
-        <v>16.412314546899</v>
+        <v>59.867348</v>
       </c>
       <c r="I3">
-        <v>0.009751784795650554</v>
+        <v>0.0117373419656925</v>
       </c>
       <c r="J3">
-        <v>0.009751784795650554</v>
+        <v>0.0117373419656925</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.02732863164104</v>
+        <v>1.077748</v>
       </c>
       <c r="N3">
-        <v>1.02732863164104</v>
+        <v>3.233244</v>
       </c>
       <c r="O3">
-        <v>0.3682820188210154</v>
+        <v>0.3011241710513264</v>
       </c>
       <c r="P3">
-        <v>0.3682820188210154</v>
+        <v>0.3011241710513265</v>
       </c>
       <c r="Q3">
-        <v>16.86084064552809</v>
+        <v>21.50730485743467</v>
       </c>
       <c r="R3">
-        <v>16.86084064552809</v>
+        <v>193.565743716912</v>
       </c>
       <c r="S3">
-        <v>0.003591406991650269</v>
+        <v>0.0035343973697651</v>
       </c>
       <c r="T3">
-        <v>0.003591406991650269</v>
+        <v>0.0035343973697651</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>16.412314546899</v>
+        <v>19.95578266666667</v>
       </c>
       <c r="H4">
-        <v>16.412314546899</v>
+        <v>59.867348</v>
       </c>
       <c r="I4">
-        <v>0.009751784795650554</v>
+        <v>0.0117373419656925</v>
       </c>
       <c r="J4">
-        <v>0.009751784795650554</v>
+        <v>0.0117373419656925</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.469659131405571</v>
+        <v>0.03488166666666666</v>
       </c>
       <c r="N4">
-        <v>0.469659131405571</v>
+        <v>0.104645</v>
       </c>
       <c r="O4">
-        <v>0.1683658059792155</v>
+        <v>0.009745982326006345</v>
       </c>
       <c r="P4">
-        <v>0.1683658059792155</v>
+        <v>0.009745982326006345</v>
       </c>
       <c r="Q4">
-        <v>7.708193394451602</v>
+        <v>0.6960909590511111</v>
       </c>
       <c r="R4">
-        <v>7.708193394451602</v>
+        <v>6.26481863146</v>
       </c>
       <c r="S4">
-        <v>0.001641867106855565</v>
+        <v>0.0001143919273519317</v>
       </c>
       <c r="T4">
-        <v>0.001641867106855565</v>
+        <v>0.0001143919273519317</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,55 +714,55 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1628.01314247892</v>
+        <v>19.95578266666667</v>
       </c>
       <c r="H5">
-        <v>1628.01314247892</v>
+        <v>59.867348</v>
       </c>
       <c r="I5">
-        <v>0.9673244906791579</v>
+        <v>0.0117373419656925</v>
       </c>
       <c r="J5">
-        <v>0.9673244906791579</v>
+        <v>0.0117373419656925</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.29252836627688</v>
+        <v>0.7256300000000001</v>
       </c>
       <c r="N5">
-        <v>1.29252836627688</v>
+        <v>2.17689</v>
       </c>
       <c r="O5">
-        <v>0.4633521751997691</v>
+        <v>0.2027419510312003</v>
       </c>
       <c r="P5">
-        <v>0.4633521751997691</v>
+        <v>0.2027419510312003</v>
       </c>
       <c r="Q5">
-        <v>2104.253167325568</v>
+        <v>14.48051457641334</v>
       </c>
       <c r="R5">
-        <v>2104.253167325568</v>
+        <v>130.32463118772</v>
       </c>
       <c r="S5">
-        <v>0.4482119068801966</v>
+        <v>0.00237965161004488</v>
       </c>
       <c r="T5">
-        <v>0.4482119068801966</v>
+        <v>0.00237965161004488</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,55 +776,55 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1628.01314247892</v>
+        <v>1637.343343333333</v>
       </c>
       <c r="H6">
-        <v>1628.01314247892</v>
+        <v>4912.03003</v>
       </c>
       <c r="I6">
-        <v>0.9673244906791579</v>
+        <v>0.9630320723052701</v>
       </c>
       <c r="J6">
-        <v>0.9673244906791579</v>
+        <v>0.9630320723052702</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.02732863164104</v>
+        <v>1.740822</v>
       </c>
       <c r="N6">
-        <v>1.02732863164104</v>
+        <v>5.222466</v>
       </c>
       <c r="O6">
-        <v>0.3682820188210154</v>
+        <v>0.4863878955914668</v>
       </c>
       <c r="P6">
-        <v>0.3682820188210154</v>
+        <v>0.4863878955914669</v>
       </c>
       <c r="Q6">
-        <v>1672.504513956498</v>
+        <v>2850.32331362822</v>
       </c>
       <c r="R6">
-        <v>1672.504513956498</v>
+        <v>25652.90982265398</v>
       </c>
       <c r="S6">
-        <v>0.3562482162823308</v>
+        <v>0.4684071430356497</v>
       </c>
       <c r="T6">
-        <v>0.3562482162823308</v>
+        <v>0.4684071430356498</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1628.01314247892</v>
+        <v>1637.343343333333</v>
       </c>
       <c r="H7">
-        <v>1628.01314247892</v>
+        <v>4912.03003</v>
       </c>
       <c r="I7">
-        <v>0.9673244906791579</v>
+        <v>0.9630320723052701</v>
       </c>
       <c r="J7">
-        <v>0.9673244906791579</v>
+        <v>0.9630320723052702</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.469659131405571</v>
+        <v>1.077748</v>
       </c>
       <c r="N7">
-        <v>0.469659131405571</v>
+        <v>3.233244</v>
       </c>
       <c r="O7">
-        <v>0.1683658059792155</v>
+        <v>0.3011241710513264</v>
       </c>
       <c r="P7">
-        <v>0.1683658059792155</v>
+        <v>0.3011241710513265</v>
       </c>
       <c r="Q7">
-        <v>764.6112384135035</v>
+        <v>1764.643513590813</v>
       </c>
       <c r="R7">
-        <v>764.6112384135035</v>
+        <v>15881.79162231732</v>
       </c>
       <c r="S7">
-        <v>0.1628643675166305</v>
+        <v>0.2899922344687655</v>
       </c>
       <c r="T7">
-        <v>0.1628643675166305</v>
+        <v>0.2899922344687656</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>13.2701060874532</v>
+        <v>1637.343343333333</v>
       </c>
       <c r="H8">
-        <v>13.2701060874532</v>
+        <v>4912.03003</v>
       </c>
       <c r="I8">
-        <v>0.007884763505507309</v>
+        <v>0.9630320723052701</v>
       </c>
       <c r="J8">
-        <v>0.007884763505507309</v>
+        <v>0.9630320723052702</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>1.29252836627688</v>
+        <v>0.03488166666666666</v>
       </c>
       <c r="N8">
-        <v>1.29252836627688</v>
+        <v>0.104645</v>
       </c>
       <c r="O8">
-        <v>0.4633521751997691</v>
+        <v>0.009745982326006345</v>
       </c>
       <c r="P8">
-        <v>0.4633521751997691</v>
+        <v>0.009745982326006345</v>
       </c>
       <c r="Q8">
-        <v>17.15198854153677</v>
+        <v>57.11326472103888</v>
       </c>
       <c r="R8">
-        <v>17.15198854153677</v>
+        <v>514.0193824893501</v>
       </c>
       <c r="S8">
-        <v>0.003653422321212569</v>
+        <v>0.009385693556064428</v>
       </c>
       <c r="T8">
-        <v>0.003653422321212569</v>
+        <v>0.009385693556064428</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,55 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>13.2701060874532</v>
+        <v>1637.343343333333</v>
       </c>
       <c r="H9">
-        <v>13.2701060874532</v>
+        <v>4912.03003</v>
       </c>
       <c r="I9">
-        <v>0.007884763505507309</v>
+        <v>0.9630320723052701</v>
       </c>
       <c r="J9">
-        <v>0.007884763505507309</v>
+        <v>0.9630320723052702</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.02732863164104</v>
+        <v>0.7256300000000001</v>
       </c>
       <c r="N9">
-        <v>1.02732863164104</v>
+        <v>2.17689</v>
       </c>
       <c r="O9">
-        <v>0.3682820188210154</v>
+        <v>0.2027419510312003</v>
       </c>
       <c r="P9">
-        <v>0.3682820188210154</v>
+        <v>0.2027419510312003</v>
       </c>
       <c r="Q9">
-        <v>13.63275992855473</v>
+        <v>1188.105450222967</v>
       </c>
       <c r="R9">
-        <v>13.63275992855473</v>
+        <v>10692.9490520067</v>
       </c>
       <c r="S9">
-        <v>0.002903816621734498</v>
+        <v>0.1952470012447904</v>
       </c>
       <c r="T9">
-        <v>0.002903816621734498</v>
+        <v>0.1952470012447904</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,60 +1024,60 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>13.2701060874532</v>
+        <v>17.50081933333334</v>
       </c>
       <c r="H10">
-        <v>13.2701060874532</v>
+        <v>52.502458</v>
       </c>
       <c r="I10">
-        <v>0.007884763505507309</v>
+        <v>0.01029341242216722</v>
       </c>
       <c r="J10">
-        <v>0.007884763505507309</v>
+        <v>0.01029341242216722</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.469659131405571</v>
+        <v>1.740822</v>
       </c>
       <c r="N10">
-        <v>0.469659131405571</v>
+        <v>5.222466</v>
       </c>
       <c r="O10">
-        <v>0.1683658059792155</v>
+        <v>0.4863878955914668</v>
       </c>
       <c r="P10">
-        <v>0.1683658059792155</v>
+        <v>0.4863878955914669</v>
       </c>
       <c r="Q10">
-        <v>6.23242649869305</v>
+        <v>30.465811313492</v>
       </c>
       <c r="R10">
-        <v>6.23242649869305</v>
+        <v>274.192301821428</v>
       </c>
       <c r="S10">
-        <v>0.001327524562560242</v>
+        <v>0.005006591206472976</v>
       </c>
       <c r="T10">
-        <v>0.001327524562560242</v>
+        <v>0.005006591206472978</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,60 +1086,60 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>25.3106650614045</v>
+        <v>17.50081933333334</v>
       </c>
       <c r="H11">
-        <v>25.3106650614045</v>
+        <v>52.502458</v>
       </c>
       <c r="I11">
-        <v>0.01503896101968408</v>
+        <v>0.01029341242216722</v>
       </c>
       <c r="J11">
-        <v>0.01503896101968408</v>
+        <v>0.01029341242216722</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.29252836627688</v>
+        <v>1.077748</v>
       </c>
       <c r="N11">
-        <v>1.29252836627688</v>
+        <v>3.233244</v>
       </c>
       <c r="O11">
-        <v>0.4633521751997691</v>
+        <v>0.3011241710513264</v>
       </c>
       <c r="P11">
-        <v>0.4633521751997691</v>
+        <v>0.3011241710513265</v>
       </c>
       <c r="Q11">
-        <v>32.71475256119847</v>
+        <v>18.86147303486133</v>
       </c>
       <c r="R11">
-        <v>32.71475256119847</v>
+        <v>169.753257313752</v>
       </c>
       <c r="S11">
-        <v>0.006968335301215158</v>
+        <v>0.00309959528291453</v>
       </c>
       <c r="T11">
-        <v>0.006968335301215158</v>
+        <v>0.003099595282914531</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,60 +1148,60 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>25.3106650614045</v>
+        <v>17.50081933333334</v>
       </c>
       <c r="H12">
-        <v>25.3106650614045</v>
+        <v>52.502458</v>
       </c>
       <c r="I12">
-        <v>0.01503896101968408</v>
+        <v>0.01029341242216722</v>
       </c>
       <c r="J12">
-        <v>0.01503896101968408</v>
+        <v>0.01029341242216722</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>1.02732863164104</v>
+        <v>0.03488166666666666</v>
       </c>
       <c r="N12">
-        <v>1.02732863164104</v>
+        <v>0.104645</v>
       </c>
       <c r="O12">
-        <v>0.3682820188210154</v>
+        <v>0.009745982326006345</v>
       </c>
       <c r="P12">
-        <v>0.3682820188210154</v>
+        <v>0.009745982326006345</v>
       </c>
       <c r="Q12">
-        <v>26.00237090345736</v>
+        <v>0.6104577463788889</v>
       </c>
       <c r="R12">
-        <v>26.00237090345736</v>
+        <v>5.49411971741</v>
       </c>
       <c r="S12">
-        <v>0.00553857892529981</v>
+        <v>0.0001003194155407359</v>
       </c>
       <c r="T12">
-        <v>0.00553857892529981</v>
+        <v>0.0001003194155407359</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1213,52 +1213,300 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>25.3106650614045</v>
+        <v>17.50081933333334</v>
       </c>
       <c r="H13">
-        <v>25.3106650614045</v>
+        <v>52.502458</v>
       </c>
       <c r="I13">
-        <v>0.01503896101968408</v>
+        <v>0.01029341242216722</v>
       </c>
       <c r="J13">
-        <v>0.01503896101968408</v>
+        <v>0.01029341242216722</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.469659131405571</v>
+        <v>0.7256300000000001</v>
       </c>
       <c r="N13">
-        <v>0.469659131405571</v>
+        <v>2.17689</v>
       </c>
       <c r="O13">
-        <v>0.1683658059792155</v>
+        <v>0.2027419510312003</v>
       </c>
       <c r="P13">
-        <v>0.1683658059792155</v>
+        <v>0.2027419510312003</v>
       </c>
       <c r="Q13">
-        <v>11.88738496803657</v>
+        <v>12.69911953284667</v>
       </c>
       <c r="R13">
-        <v>11.88738496803657</v>
+        <v>114.29207579562</v>
       </c>
       <c r="S13">
-        <v>0.002532046793169115</v>
+        <v>0.002086906517238975</v>
       </c>
       <c r="T13">
-        <v>0.002532046793169115</v>
+        <v>0.002086906517238975</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>25.39612333333333</v>
+      </c>
+      <c r="H14">
+        <v>76.18836999999999</v>
+      </c>
+      <c r="I14">
+        <v>0.01493717330687017</v>
+      </c>
+      <c r="J14">
+        <v>0.01493717330687017</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1.740822</v>
+      </c>
+      <c r="N14">
+        <v>5.222466</v>
+      </c>
+      <c r="O14">
+        <v>0.4863878955914668</v>
+      </c>
+      <c r="P14">
+        <v>0.4863878955914669</v>
+      </c>
+      <c r="Q14">
+        <v>44.21013021338</v>
+      </c>
+      <c r="R14">
+        <v>397.8911719204199</v>
+      </c>
+      <c r="S14">
+        <v>0.007265260290813613</v>
+      </c>
+      <c r="T14">
+        <v>0.007265260290813614</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>25.39612333333333</v>
+      </c>
+      <c r="H15">
+        <v>76.18836999999999</v>
+      </c>
+      <c r="I15">
+        <v>0.01493717330687017</v>
+      </c>
+      <c r="J15">
+        <v>0.01493717330687017</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.077748</v>
+      </c>
+      <c r="N15">
+        <v>3.233244</v>
+      </c>
+      <c r="O15">
+        <v>0.3011241710513264</v>
+      </c>
+      <c r="P15">
+        <v>0.3011241710513265</v>
+      </c>
+      <c r="Q15">
+        <v>27.37062113025333</v>
+      </c>
+      <c r="R15">
+        <v>246.33559017228</v>
+      </c>
+      <c r="S15">
+        <v>0.00449794392988128</v>
+      </c>
+      <c r="T15">
+        <v>0.00449794392988128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>25.39612333333333</v>
+      </c>
+      <c r="H16">
+        <v>76.18836999999999</v>
+      </c>
+      <c r="I16">
+        <v>0.01493717330687017</v>
+      </c>
+      <c r="J16">
+        <v>0.01493717330687017</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.03488166666666666</v>
+      </c>
+      <c r="N16">
+        <v>0.104645</v>
+      </c>
+      <c r="O16">
+        <v>0.009745982326006345</v>
+      </c>
+      <c r="P16">
+        <v>0.009745982326006345</v>
+      </c>
+      <c r="Q16">
+        <v>0.8858591087388888</v>
+      </c>
+      <c r="R16">
+        <v>7.97273197865</v>
+      </c>
+      <c r="S16">
+        <v>0.0001455774270492504</v>
+      </c>
+      <c r="T16">
+        <v>0.0001455774270492504</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>25.39612333333333</v>
+      </c>
+      <c r="H17">
+        <v>76.18836999999999</v>
+      </c>
+      <c r="I17">
+        <v>0.01493717330687017</v>
+      </c>
+      <c r="J17">
+        <v>0.01493717330687017</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.7256300000000001</v>
+      </c>
+      <c r="N17">
+        <v>2.17689</v>
+      </c>
+      <c r="O17">
+        <v>0.2027419510312003</v>
+      </c>
+      <c r="P17">
+        <v>0.2027419510312003</v>
+      </c>
+      <c r="Q17">
+        <v>18.42818897436667</v>
+      </c>
+      <c r="R17">
+        <v>165.8537007693</v>
+      </c>
+      <c r="S17">
+        <v>0.003028391659126024</v>
+      </c>
+      <c r="T17">
+        <v>0.003028391659126024</v>
       </c>
     </row>
   </sheetData>
